--- a/data/Item_based_patents.xlsx
+++ b/data/Item_based_patents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ruchika Ms\CMPE256\Group project\Repo\Recommender-System\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B068D2-D365-47AA-8697-721F5214E126}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824829B4-B5AB-4F81-B185-13C6AF980B0A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>UID</t>
   </si>
@@ -60,12 +60,6 @@
     <t>U08</t>
   </si>
   <si>
-    <t>U09</t>
-  </si>
-  <si>
-    <t>U10</t>
-  </si>
-  <si>
     <t>10349422, 10349418, 10349295</t>
   </si>
   <si>
@@ -79,9 +73,6 @@
   </si>
   <si>
     <t>9794808, 9794797</t>
-  </si>
-  <si>
-    <t>10341212, 10341209</t>
   </si>
   <si>
     <t>10312751, 10312750, 10312749</t>
@@ -446,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.1484375" defaultRowHeight="15.6"/>
@@ -472,7 +463,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -481,7 +472,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -490,7 +481,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -499,25 +490,25 @@
         <v>5</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2"/>
     </row>
@@ -526,7 +517,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -535,38 +526,26 @@
         <v>9</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="B10" s="7"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="2"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="7"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" s="7"/>
-      <c r="C13" s="3"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="C14" s="3"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3">
       <c r="C15" s="2"/>
@@ -593,16 +572,16 @@
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="2"/>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="2"/>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="3"/>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="3"/>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="2"/>
@@ -622,66 +601,66 @@
     <row r="32" spans="3:3">
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="2:3">
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="3:3">
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="3:3">
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="3:3">
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="3:3">
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="3:3">
+    <row r="34" spans="2:3">
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="2:3">
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="3:3">
+    <row r="39" spans="2:3">
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="3:3">
+    <row r="40" spans="2:3">
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="3:3">
+    <row r="41" spans="2:3">
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="3:3">
+    <row r="42" spans="2:3">
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="3:3">
+    <row r="43" spans="2:3">
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="3:3">
+    <row r="44" spans="2:3">
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="3:3">
+    <row r="45" spans="2:3">
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="3:3">
+    <row r="46" spans="2:3">
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="3:3">
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48" spans="3:3">
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="2:3" ht="17.7">
-      <c r="B49" s="6"/>
-      <c r="C49" s="3"/>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="C50" s="3"/>
+    <row r="47" spans="2:3" ht="17.7">
+      <c r="B47" s="6"/>
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="2:3" ht="17.7">
+      <c r="B50" s="4"/>
+      <c r="C50" s="2"/>
     </row>
     <row r="51" spans="2:3">
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="2:3" ht="17.7">
-      <c r="B52" s="4"/>
+    <row r="52" spans="2:3">
       <c r="C52" s="2"/>
     </row>
     <row r="53" spans="2:3">
@@ -705,11 +684,11 @@
     <row r="59" spans="2:3">
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="2:3">
-      <c r="C60" s="2"/>
-    </row>
-    <row r="61" spans="2:3">
-      <c r="C61" s="2"/>
+    <row r="62" spans="2:3">
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="C63" s="2"/>
     </row>
     <row r="64" spans="2:3">
       <c r="C64" s="2"/>
@@ -729,11 +708,11 @@
     <row r="69" spans="3:3">
       <c r="C69" s="2"/>
     </row>
-    <row r="70" spans="3:3">
-      <c r="C70" s="2"/>
-    </row>
-    <row r="71" spans="3:3">
-      <c r="C71" s="2"/>
+    <row r="74" spans="3:3">
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" s="2"/>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" s="2"/>
@@ -747,11 +726,11 @@
     <row r="79" spans="3:3">
       <c r="C79" s="2"/>
     </row>
-    <row r="80" spans="3:3">
-      <c r="C80" s="2"/>
-    </row>
-    <row r="81" spans="3:3">
-      <c r="C81" s="2"/>
+    <row r="83" spans="3:3">
+      <c r="C83" s="2"/>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84" s="2"/>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" s="2"/>
@@ -762,12 +741,12 @@
     <row r="87" spans="3:3">
       <c r="C87" s="2"/>
     </row>
-    <row r="88" spans="3:3">
-      <c r="C88" s="2"/>
-    </row>
     <row r="89" spans="3:3">
       <c r="C89" s="2"/>
     </row>
+    <row r="90" spans="3:3">
+      <c r="C90" s="2"/>
+    </row>
     <row r="91" spans="3:3">
       <c r="C91" s="2"/>
     </row>
@@ -779,12 +758,6 @@
     </row>
     <row r="94" spans="3:3">
       <c r="C94" s="2"/>
-    </row>
-    <row r="95" spans="3:3">
-      <c r="C95" s="2"/>
-    </row>
-    <row r="96" spans="3:3">
-      <c r="C96" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Item_based_patents.xlsx
+++ b/data/Item_based_patents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ruchika Ms\CMPE256\Group project\Repo\Recommender-System\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8647368-4F79-4409-BF65-B6930BBA7D05}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D39A7C6-82CA-40C7-8067-C0BD448D7062}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,25 +60,25 @@
     <t>U08</t>
   </si>
   <si>
-    <t>10349422, 10349418, 10349295</t>
-  </si>
-  <si>
-    <t>10346095, 10346094, 10346083</t>
-  </si>
-  <si>
-    <t>9967960, 9967646, 9967292</t>
-  </si>
-  <si>
-    <t>10331583, 10327202, 10326741, 10326673</t>
-  </si>
-  <si>
     <t>9794808, 9794797</t>
   </si>
   <si>
-    <t>10312751, 10312750, 10312749</t>
-  </si>
-  <si>
-    <t>9967277, 9965766, 9961198</t>
+    <t>10349422, 10349418</t>
+  </si>
+  <si>
+    <t>10346095, 10346094</t>
+  </si>
+  <si>
+    <t>10331583, 10327202</t>
+  </si>
+  <si>
+    <t>10312751, 10312750</t>
+  </si>
+  <si>
+    <t>9967277, 9965766</t>
+  </si>
+  <si>
+    <t>9967960, 9967646</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
   <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.1484375" defaultRowHeight="15.6"/>
@@ -463,7 +463,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -472,7 +472,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -481,7 +481,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -490,7 +490,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3"/>
     </row>
@@ -508,7 +508,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2"/>
     </row>
@@ -517,7 +517,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -526,7 +526,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2"/>
     </row>
